--- a/StructureDefinition-ext-R5-Immunization.informationSource.xlsx
+++ b/StructureDefinition-ext-R5-Immunization.informationSource.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Immunization.informationSource` 0..1 `CodeableReference(http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/RelatedPerson,http://hl7.org/fhir/StructureDefinition/Organization)`
 Following are the generation technical comments:
-Element `Immunization.informationSource` is mapped to FHIR R4 structure `Immunization`, but has no target element specified.</t>
+Element `Immunization.informationSource` is will have a context of Immunization based on following the parent source element upwards and mapping to `Immunization`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Immunization</t>
   </si>
   <si>
     <t>ID</t>
@@ -432,7 +432,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:concept.id</t>
@@ -469,7 +469,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>
@@ -830,7 +830,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="104.16796875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="141.078125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Immunization.informationSource.xlsx
+++ b/StructureDefinition-ext-R5-Immunization.informationSource.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Immunization.informationSource` 0..1 `CodeableReference(http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/RelatedPerson,http://hl7.org/fhir/StructureDefinition/Organization)`
 Following are the generation technical comments:
-Element `Immunization.informationSource` is will have a context of Immunization based on following the parent source element upwards and mapping to `Immunization`.</t>
+Element `Immunization.informationSource` has a context of Immunization based on following the parent source element upwards and mapping to `Immunization`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -431,8 +431,8 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:concept.id</t>
@@ -469,8 +469,8 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:reference.id</t>
@@ -830,7 +830,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="141.078125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="135.08984375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Immunization.informationSource.xlsx
+++ b/StructureDefinition-ext-R5-Immunization.informationSource.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -431,8 +431,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:concept.id</t>
@@ -454,7 +453,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-immunization-origin-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-immunization-origin-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:reference</t>
@@ -469,8 +468,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:reference.id</t>
@@ -485,7 +483,7 @@
     <t>Extension.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -830,7 +828,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="135.08984375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="95.9453125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -841,7 +839,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.65625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.57421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Immunization.informationSource.xlsx
+++ b/StructureDefinition-ext-R5-Immunization.informationSource.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -431,7 +431,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:concept.id</t>
@@ -453,7 +453,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-immunization-origin-for-R4</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-origin|4.0.1</t>
   </si>
   <si>
     <t>Extension.extension:reference</t>
@@ -468,7 +468,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:reference.id</t>
@@ -483,7 +483,7 @@
     <t>Extension.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -828,7 +828,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="95.9453125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="131.76171875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -839,7 +839,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.328125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
